--- a/data/trans_camb/P6901-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 24,68</t>
+          <t>-11,38; 25,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 17,04</t>
+          <t>-24,44; 17,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 6,56</t>
+          <t>-30,57; 7,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 19,93</t>
+          <t>-20,33; 20,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 22,12</t>
+          <t>-19,08; 20,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 19,41</t>
+          <t>-16,06; 21,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 16,54</t>
+          <t>-11,77; 16,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 12,94</t>
+          <t>-13,98; 12,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 10,17</t>
+          <t>-17,52; 9,29</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,56; 51,21</t>
+          <t>-17,47; 53,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 36,01</t>
+          <t>-37,85; 35,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,87; 12,55</t>
+          <t>-48,53; 15,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 43,11</t>
+          <t>-31,11; 39,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 45,46</t>
+          <t>-28,16; 44,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 38,89</t>
+          <t>-21,96; 47,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 33,12</t>
+          <t>-17,27; 31,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 24,69</t>
+          <t>-21,85; 24,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 19,71</t>
+          <t>-26,53; 17,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 46,21</t>
+          <t>2,72; 44,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 46,44</t>
+          <t>2,8; 46,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 28,0</t>
+          <t>-15,69; 26,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 9,66</t>
+          <t>-33,26; 8,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 20,34</t>
+          <t>-10,73; 19,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,34; -12,63</t>
+          <t>-45,64; -12,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 22,46</t>
+          <t>-9,44; 22,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 28,84</t>
+          <t>1,09; 29,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 2,08</t>
+          <t>-26,12; 2,4</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 125,79</t>
+          <t>5,71; 121,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 131,9</t>
+          <t>5,13; 128,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 81,59</t>
+          <t>-26,18; 79,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 11,78</t>
+          <t>-37,34; 10,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 27,07</t>
+          <t>-11,41; 25,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,77; -16,26</t>
+          <t>-51,64; -16,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 37,07</t>
+          <t>-12,41; 37,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 48,97</t>
+          <t>2,11; 50,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 3,14</t>
+          <t>-34,8; 4,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 3,57</t>
+          <t>-22,44; 2,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 3,26</t>
+          <t>-25,44; 2,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 4,58</t>
+          <t>-25,53; 3,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 35,36</t>
+          <t>-8,25; 37,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 33,82</t>
+          <t>-24,03; 34,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 27,49</t>
+          <t>-21,81; 28,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 7,08</t>
+          <t>-14,09; 6,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 3,59</t>
+          <t>-20,97; 5,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 5,19</t>
+          <t>-20,05; 5,19</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 4,83</t>
+          <t>-26,86; 3,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 4,4</t>
+          <t>-30,56; 3,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 6,02</t>
+          <t>-30,28; 4,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 62,44</t>
+          <t>-7,59; 66,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 52,26</t>
+          <t>-26,1; 62,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,67; 45,67</t>
+          <t>-24,28; 49,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 9,5</t>
+          <t>-17,01; 8,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 5,03</t>
+          <t>-25,85; 7,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 6,73</t>
+          <t>-24,21; 6,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 6,22</t>
+          <t>-13,05; 6,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 7,7</t>
+          <t>-10,68; 7,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 10,79</t>
+          <t>-6,6; 11,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 26,95</t>
+          <t>-4,56; 26,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 33,26</t>
+          <t>5,74; 35,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 22,56</t>
+          <t>-5,6; 23,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 7,53</t>
+          <t>-7,88; 7,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 12,84</t>
+          <t>-2,18; 12,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 9,96</t>
+          <t>-3,37; 10,33</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 7,87</t>
+          <t>-15,76; 8,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 10,07</t>
+          <t>-12,74; 10,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 13,95</t>
+          <t>-8,03; 14,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 44,56</t>
+          <t>-5,58; 43,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,89; 56,44</t>
+          <t>6,62; 59,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 37,77</t>
+          <t>-6,89; 40,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 10,1</t>
+          <t>-9,43; 10,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 17,08</t>
+          <t>-2,75; 16,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 13,26</t>
+          <t>-4,14; 13,45</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 13,87</t>
+          <t>-15,86; 14,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 13,1</t>
+          <t>-14,22; 11,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 16,42</t>
+          <t>-10,59; 16,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,21; 4,69</t>
+          <t>-23,87; 4,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 13,07</t>
+          <t>-9,61; 12,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 11,56</t>
+          <t>-12,98; 11,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 5,3</t>
+          <t>-13,6; 6,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 8,07</t>
+          <t>-9,49; 7,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 11,87</t>
+          <t>-7,68; 12,4</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 17,46</t>
+          <t>-17,63; 19,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 16,38</t>
+          <t>-15,67; 15,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 21,65</t>
+          <t>-11,63; 22,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 5,45</t>
+          <t>-26,05; 5,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 15,79</t>
+          <t>-10,25; 14,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 13,83</t>
+          <t>-13,93; 13,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 6,32</t>
+          <t>-15,13; 8,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 9,83</t>
+          <t>-10,46; 9,58</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 14,77</t>
+          <t>-8,33; 15,31</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 5,7</t>
+          <t>-6,96; 5,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 6,08</t>
+          <t>-6,95; 5,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 3,74</t>
+          <t>-8,8; 3,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 8,11</t>
+          <t>-8,01; 8,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 14,66</t>
+          <t>-0,85; 14,08</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 8,87</t>
+          <t>-7,23; 8,9</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 4,38</t>
+          <t>-5,31; 4,71</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,33</t>
+          <t>-2,36; 7,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 4,53</t>
+          <t>-5,4; 5,21</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 7,73</t>
+          <t>-8,98; 7,15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 8,34</t>
+          <t>-8,87; 8,13</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 5,2</t>
+          <t>-11,29; 5,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 10,94</t>
+          <t>-9,75; 10,99</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 20,0</t>
+          <t>-0,58; 19,53</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 12,17</t>
+          <t>-8,9; 12,04</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 5,96</t>
+          <t>-6,7; 6,4</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 9,96</t>
+          <t>-3,08; 9,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 6,19</t>
+          <t>-6,96; 7,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6901-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
